--- a/Data Resources/Book Data.xlsx
+++ b/Data Resources/Book Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\School Codes\4413\Project\4413-2021\Data Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5037C46-5C4E-46A3-87B0-24074124969B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="24765" yWindow="2910" windowWidth="7455" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,164 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Picture Link</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>A Promised Land</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41L5qgUW2fL._SX327_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>The Answer is... Reflections on My Life</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex Trebe</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41agWXl9gBL._SX331_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Building a Web Site For Dummies</t>
+  </si>
+  <si>
+    <t>David A. Crowder</t>
+  </si>
+  <si>
+    <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51Rj5uyFTIL._SX396_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>A Game of Thrones: A Song of Ice and Fire</t>
+  </si>
+  <si>
+    <t>George R. R. Martin</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51aTnsl0MPL._SX303_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>My introduction to this wonderful series came from my grandson &amp; after making it through to the end, I've just finished book 3. This format is very easy to read &amp; of course, the book is difficult to put down...you get involved in the lives of the characters.</t>
+  </si>
+  <si>
+    <t>The Hobbit</t>
+  </si>
+  <si>
+    <t>J. R. R. Tolkien</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51n+ej8DlnL._SX378_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>When I saw the price of this beautiful edition, I nabbed it. Being one of my favorite books, this edition caught my eye. The whimsical illustrations suit the story magically well. It's a heavy book with quality cover &amp; paper. Tolkien would have approved, kudos to the artist for her immaculate taste &amp; style, and Mr. Tolkien for this timeless tale, what a gem !</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51dAmkybCEL._SX322_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>Greg Keyes</t>
+  </si>
+  <si>
+    <t>Science-Fiction</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51H4jXmToqL._SX300_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>Ender's Game</t>
+  </si>
+  <si>
+    <t>Orson Scott Card</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51sfTXF6eUL._SX302_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>Calculus: Early Transcendentals</t>
+  </si>
+  <si>
+    <t>James Stewart</t>
+  </si>
+  <si>
+    <t>Textbook</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51xUmFAz+VL._SX423_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>The Bob's Burgers Burger Book: Real Recipes for Joke Burgers</t>
+  </si>
+  <si>
+    <t>Loren Bouchard</t>
+  </si>
+  <si>
+    <t>Cookbook</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51joZSTuB5L._SX349_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>The quality of the printing is exceptional, and the thickness of the paper is appreciated. There is an option for everyone in the book, and any of the burgers can be easily altered to suit needs.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +204,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +486,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="230" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>29.99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>27.71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>28.22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>13.37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>29.69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>10.49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>9.89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>210.15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>24.74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Resources/Book Data.xlsx
+++ b/Data Resources/Book Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\School Codes\4413\Project\4413-2021\Data Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan\OneDrive\Documents\YORK_YEAR4\EECS4413 - Ecommerce\4413-2021\Data Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5037C46-5C4E-46A3-87B0-24074124969B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F8FEF-FCCD-40A0-AD08-293FC48BE137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24765" yWindow="2910" windowWidth="7455" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Title</t>
   </si>
@@ -163,6 +163,123 @@
   </si>
   <si>
     <t>The quality of the printing is exceptional, and the thickness of the paper is appreciated. There is an option for everyone in the book, and any of the burgers can be easily altered to suit needs.</t>
+  </si>
+  <si>
+    <t>The Stand</t>
+  </si>
+  <si>
+    <t>Stephen King</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Philosopher's Stone</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>Star Wars The High Republic: Into The Dark</t>
+  </si>
+  <si>
+    <t>Claudia Gray</t>
+  </si>
+  <si>
+    <t>The Midnight Library</t>
+  </si>
+  <si>
+    <t>Matt Haig</t>
+  </si>
+  <si>
+    <t>Ground Zero</t>
+  </si>
+  <si>
+    <t>Alan Gratz</t>
+  </si>
+  <si>
+    <t>Java: A Beginner's Guide, Eighth Edition</t>
+  </si>
+  <si>
+    <t>Herbert Schildt</t>
+  </si>
+  <si>
+    <t>Infinity Gauntlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jim Starlin (Contributor), George Perez (Illustrator), Ron Lim (Illustrator) </t>
+  </si>
+  <si>
+    <t>LORE</t>
+  </si>
+  <si>
+    <t>Alexandra Bracken</t>
+  </si>
+  <si>
+    <t>How To Avoid A Climate Disaster: The Solutions We Have And The Breakthroughs We Need</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>The Evening And The Morning</t>
+  </si>
+  <si>
+    <t>Ken Follett</t>
+  </si>
+  <si>
+    <t>American Horror Fiction</t>
+  </si>
+  <si>
+    <t>Fantasy, Action &amp; Adventure</t>
+  </si>
+  <si>
+    <t>Sci-fi</t>
+  </si>
+  <si>
+    <t>Science Fiction &amp; Fantasy, Science Fiction</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Graphic Novel</t>
+  </si>
+  <si>
+    <t>Fantasy, Adventure</t>
+  </si>
+  <si>
+    <t>Non-Fiction, Science</t>
+  </si>
+  <si>
+    <t>Historical Fiction</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41M5nekhDNL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51UoqRAxwEL.jpg</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/1368057284.jpg?scaleup=true&amp;width=614&amp;maxheight=614&amp;quality=85&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/419X9dVWmJL._SX353_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51OK5z7CCcL._SX329_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51KDndebj7L._SX403_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51UlKuVWViL._SX324_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51GzewxBJrL._SX329_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/0735280444.jpg?scaleup=true&amp;width=614&amp;maxheight=614&amp;quality=85&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/0525954988.jpg?scaleup=true&amp;width=614&amp;maxheight=614&amp;quality=85&amp;lang=en</t>
   </si>
 </sst>
 </file>
@@ -204,9 +321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +346,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2CC1E3F8-879B-4267-95FC-063D122BD653}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{C06C9B10-C9C9-4B8A-BC9F-896982124D93}" name="Author"/>
+    <tableColumn id="3" xr3:uid="{E18B4205-B288-42B9-AF0B-12C731EB52D6}" name="Genre"/>
+    <tableColumn id="4" xr3:uid="{AB0F5EA9-7DE6-4DC5-B5A1-ECC0AC905A6B}" name="price"/>
+    <tableColumn id="5" xr3:uid="{D1900ECD-8BE6-42EC-A5EA-CDDA940E8E6A}" name="Picture Link"/>
+    <tableColumn id="6" xr3:uid="{3A9CDCCD-773A-4185-B2A6-DA79F66AB8A0}" name="Reviews"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,23 +626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="230" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -540,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -557,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -574,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -594,7 +733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -614,7 +753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -631,7 +770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -648,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -665,7 +804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -682,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -700,10 +839,183 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11.99</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10.99</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5">
+        <v>22.99</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5">
+        <v>30.54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44.84</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20.29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data Resources/Book Data.xlsx
+++ b/Data Resources/Book Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenan\OneDrive\Documents\YORK_YEAR4\EECS4413 - Ecommerce\4413-2021\Data Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rish_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F8FEF-FCCD-40A0-AD08-293FC48BE137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8826D-0F1B-475A-9BAE-8BD540EFEF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -280,12 +280,102 @@
   </si>
   <si>
     <t>https://dynamic.indigoimages.ca/books/0525954988.jpg?scaleup=true&amp;width=614&amp;maxheight=614&amp;quality=85&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Heart of Darkness</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Frankenstein</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>THE ROSE CODE: A NOVEL</t>
+  </si>
+  <si>
+    <t>CROSSROADS: MY STORY OF TRAGEDY</t>
+  </si>
+  <si>
+    <t>THE PUSH</t>
+  </si>
+  <si>
+    <t>A COURT OF SILVER FLAMES</t>
+  </si>
+  <si>
+    <t>WE BEGIN AT THE END</t>
+  </si>
+  <si>
+    <t>Chris Whitaker</t>
+  </si>
+  <si>
+    <t>Ashley Audrain</t>
+  </si>
+  <si>
+    <t>Sarah J. Maas</t>
+  </si>
+  <si>
+    <t>Kaleb Dahlgren</t>
+  </si>
+  <si>
+    <t>Kate Quinn</t>
+  </si>
+  <si>
+    <t>THE BEAUTY OF LIVING TWICE</t>
+  </si>
+  <si>
+    <t>DOG MAN: MOTHERING HEIGHTS: FROM THE CREATOR OF CAPTAIN</t>
+  </si>
+  <si>
+    <t>Sharon Stone</t>
+  </si>
+  <si>
+    <t>Dav Pilkey</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/0063060442.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=39&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/144346287x.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=24&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/0735239894.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=39&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/168119628x.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=30&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/1250793769.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=39&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/0525656766.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=32&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/1338680455.jpg?width=200&amp;quality=85&amp;maxheight=200&amp;sale=24&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/198214615x.jpg?maxheight=200&amp;width=200&amp;quality=85&amp;sale=9&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://dynamic.indigoimages.ca/books/184931103x.jpg?maxheight=200&amp;width=200&amp;quality=85&amp;sale=74&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Joseph Conrad</t>
+  </si>
+  <si>
+    <t>Mary Shelley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +420,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -349,13 +443,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CC1E3F8-879B-4267-95FC-063D122BD653}" name="Title"/>
     <tableColumn id="2" xr3:uid="{C06C9B10-C9C9-4B8A-BC9F-896982124D93}" name="Author"/>
     <tableColumn id="3" xr3:uid="{E18B4205-B288-42B9-AF0B-12C731EB52D6}" name="Genre"/>
-    <tableColumn id="4" xr3:uid="{AB0F5EA9-7DE6-4DC5-B5A1-ECC0AC905A6B}" name="price"/>
+    <tableColumn id="4" xr3:uid="{AB0F5EA9-7DE6-4DC5-B5A1-ECC0AC905A6B}" name="price" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D1900ECD-8BE6-42EC-A5EA-CDDA940E8E6A}" name="Picture Link"/>
     <tableColumn id="6" xr3:uid="{3A9CDCCD-773A-4185-B2A6-DA79F66AB8A0}" name="Reviews"/>
   </tableColumns>
@@ -626,23 +720,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="230" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -672,14 +766,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>29.99</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -689,14 +783,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>27.71</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -706,14 +800,14 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>28.22</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -723,7 +817,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>13.37</v>
       </c>
       <c r="E5" t="s">
@@ -733,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -743,7 +837,7 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>29.69</v>
       </c>
       <c r="E6" t="s">
@@ -753,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -763,14 +857,14 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -780,14 +874,14 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>10.49</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -797,14 +891,14 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>9.89</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -814,14 +908,14 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>210.15</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -831,7 +925,7 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>24.74</v>
       </c>
       <c r="E11" t="s">
@@ -841,7 +935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -851,14 +945,14 @@
       <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>11.99</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -868,14 +962,14 @@
       <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>10.99</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -885,14 +979,14 @@
       <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>22.99</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -902,14 +996,14 @@
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>30.54</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -919,14 +1013,14 @@
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>23.75</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -936,14 +1030,14 @@
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>44.84</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -953,14 +1047,14 @@
       <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>20.29</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -970,14 +1064,14 @@
       <c r="C19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>19.8</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -987,14 +1081,14 @@
       <c r="C20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>25</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1004,11 +1098,164 @@
       <c r="C21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>33.6</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="6">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="6">
+        <v>39.99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="6">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="6">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="6">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Data Resources/Book Data.xlsx
+++ b/Data Resources/Book Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rish_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8826D-0F1B-475A-9BAE-8BD540EFEF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16DC8D1-D1A6-47DB-B912-431A4E833826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
     <t>Title</t>
   </si>
@@ -367,6 +367,72 @@
   </si>
   <si>
     <t>Mary Shelley</t>
+  </si>
+  <si>
+    <t>Do Androids Dream of Electric Sheep?</t>
+  </si>
+  <si>
+    <t>Phillip K. Dick</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Do_Androids_Dream_of_Electric_Sheep%3F#/media/File:DoAndroidsDream.png</t>
+  </si>
+  <si>
+    <t>This is a great book, a must for all Sci-Fi fans. Philip Dick creates a interesting world wear androids and religion are vying for so profound changes in what it means to be human. I read this for a book club and we had a great time discussing the story together.</t>
+  </si>
+  <si>
+    <t>Some times you just want an epic adventure to grab hold and not let go. I finished the last half of the book in a day, staying up way too late to find out what happens next. Been a bit too long since the last time that’s happened.Sure, the magic system was perhaps a bit complicated and there were a lot of twists at the end, but the book set out to be adventure/fantasy/heist all rolled into one and it succeeded. Loved it.</t>
+  </si>
+  <si>
+    <t>Mistborn: The Final Empire</t>
+  </si>
+  <si>
+    <t>Brandon Sanderson</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mistborn#/media/File:Mistborn-cover.jpg</t>
+  </si>
+  <si>
+    <t>A History of Canada in Ten Maps: Epic Stories of Charting a Mysterious Land</t>
+  </si>
+  <si>
+    <t>Adam Sholts</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXFR0YGBcXGBcXFxcYFRcWFxUVGBcYHSggGBolHhcVITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OFRAQFy0dHR0rLS0tLS0rLS0tLS0rLSstLS0tKy0tLSsrLTgtKy03NystLSstLS03Ky0rKy0rKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAwQFBgcCAf/EAEoQAAEEAAMEBQYKBwcEAwEAAAEAAgMRBBIhBQYxQRMiUWFxBzKBkaGxFCM0QlKCssHR8BUzU2Jyc6IkJUOSk8LhFmOD8XSz0lT/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACMRAQEBAAICAQQDAQAAAAAAAAABEQIxAxIhBDJBcRNRYSL/2gAMAwEAAhEDEQA/ANxQhCAQhCCA38P9gxH8I+21YmZK469wA+9bbv38gn/hH22rFI3a0QQe/s5cFx8nY9c3XsHDl9/BcRt0De/3E/gFLbtYJs2KiieLYScwsgZWtLiNAOQKU3pwLIcaYomno+oWiyaa5rSTZN6nMsYIWyDqdPCqq+xJREv0PL1epX3eXd/C5MU2GN0T8N0ZJzuc14lHNriaPH1JpuJsSHEMmMrQaDWx0XAB7hISdKvzQmCqNFdvqP4LpzOXdy5qe3HwEWIxIjmGZvRuJFluorW2kHtUjiN3I48DipXA9IyctY7M4UxsrI/NujfW4jmmCos0019VJKaq19q66QcFcsZszAxwMbI2nvwvTMxBc45pP2YaNOz1pIKVE30pVz6/9Ke2FsyJ+EdK5tvGLjiDsxHUkdHmFXXzinLdjRO2t8Ey1FnIoE2A2LPls6617VcFXlBIrT0oe4CgePYOfj3Ky704SAQQ4iGPos75GFuYuHxbi0EXwul6/YMX6K+EFvx9h5dZ8wy5Kq6qh2JgqoZqaPHtXHQEDzufPnorFszBxuwOJmIt7Hxhps6B5104H0hL7kYTDzSmCeEyF4Lg7O5uUNaSRTSLtTBVmTD89gCUEwVh2Rg8PiMcyNsRihc6smYu81hJGY66ke1c7yDCUwwxiKTM9ssVuJbldTXEu5nVMEC5+g71rHkqbWCP85/uaspZGKu/Baz5LvkZ/nO9zVvx9i3oQhdgIQhAIQhAIQhAIQhBAb+fIMRz6o+21Yk5pI82jrrY9/HsW279urATn90fbasQmlcDyvl69CuPk7Fl3AbmxL3OpvR4eRxeapvVDcx7qcU430ga2bCuzB4dh4hmHB5Y7LY7uHrUHsvETMzti1MrDG4UCS08QPo+PcjamMmIiilH6oUwEAENuwb+cLCx7ToXreMkDax/dgrxrgEjuAGjDxPMjWZsZoHcX1EWZG95LvYqjtjeLFYhnRzS23jla1rQ4jUEkCz/AMJthtozNjijDhlhf0jNASHk3ZPP0rWwTO7I6PaGKa35kWIbz4xkjmrVvdjQ/C4gN4fB4JK755y4nx0tUBu1JGyyTgjpJM4eaGok8/TgLSUu2psj2ZgWPZHG6wLywfqxfEV296b8BqxneeHarxhtnvdhn4OcAuZB8Kw7gbytuiwkcj2d/cKoQlN6d3HlqrAzeHF/B/g/SWzLkvKM2Q6ZM1XXLtWZ8die3PxnR4F7wGOvGRNp4zDr9GLrkddF1hSP0+dNekdr2f2ZyqmExkscXRN0YZBKeqDboy2nXV0C0dy9k2nKcQcRZEwdmLg2qNBvCqA5elX2mCW3gB/R2FqvlE/qzvVm+Bj4EYukbm/RwPR/PsEyZ/C9FSds7XnxJb0psMsBrW5QCaLjl7eCUdtvE9IZgev0XQ+YK6PTq1XIAG09oH2yR/duM/mRfaC48nrv7cwfuv8AsFR+xNu4jDMcITTXGzbQ4dTS7I70nhtoTR4h07dJSXOJofPvN1aocSpsHWyMNJLiGMhIEuYlputWAv4+hS29sbZo4cYGhrpczJQOHSRmi4eNH1BQeDllie2RmZr2usGuBA6w17ibHYU621tmfEZemdo28rQA0a6k0OZTYI2gFq3ku+Rn+c73NWUUtY8mHyM/zXe5q14+0W5CELuoQhCAQhCAQhCAQhCCA37+QT/wj7bViAbzNer7x+dFvu8OBE+HkiJLQ4AWKsU4HS/BUV24MJ/xZP6fwXHydil7D2t0MoflttV360bAKkNo7aEkoc1tVG5nW552FhOncVYzuBD+2l/p/Bd/9DxftZPU38Fy9OPt7flrbmKp+mHZga+fmqzzeJPVY9qRdtUgA5RbWgCyapvRez4of5ire7caH9rJ/T+CT/6Eh/ayf0/gts4rMm1y7oyWNGRzXCr1LGsaAfHKLPivX7Wcfmt1YWVrWrHssDtp59Ssse4cI/xpPDq/guZtzoW/4knqb+ChivSbWc57X5GjKXnnr0g1tNnYw5nOoEuLT4ZDYHsUviNiQtqnvJ76UbtDZ4ZztX0tTcIMxZDaA0yFvocb9a4+EHM80Ot46a37wFwKGgNm6STna0NSp/D/AIe9PHYo/RHEnS/nAA+4ImxWYkkCySf8zcpXMUN6HipBmzQeJPsU/iX2tRsExaKH0SP82W/cum4ogvNDrggjx7OzVTI2IyrLnexOYd2YnCw9/s/BPQ2q9NjCeQ1JPfqzJ7khNOXGyOVergrgzc+Lj0j/AOn8Ep/0dD+0k/p/BJxk6XbVJzfn88VrHkw+Rn+a73NVfbuRD+1k/p/BXPdHZjcPAY2kkZybNXqB2eC6ePtMTaEIXYCEIQCEIQCEIQCEIQIY3zD+eYUTalsd5jvzzChXPXHydrHRck5JQElJImj3LIcmS1yZ6SEUi6cFQ5Dua4nIIISHS6LhzqUEXJAbKjo9kOmmZE4kZzV8dNTfqCtBaCO9L7IjHTA/Ra4+oV963KmM83n3eGEl6MOL7aHA1XGxyPcVGxsoWrlvs0ubhZSLzQAHxbR/3KsvNhdNZK4Fuug/P3qfia2tVC4Nx04KVewuFLNCmccOKfYahwUMw5Tbk9w89kKWLqdY7RcmRcwDRddGubRaJxVg2Ofi/rH7lAMU9sf9X9Y/ctcOw/QhC7IEIQgEIQgEIQgEIQgbbRNRu8PvCrherDtY/Ev8PvCqhkXPn2HD+CZvkXpmTOSTVZkHXT0U9jnBChXvsoGJI0TDUuaASrWghRMWLsJ5FiOxTDTlr6NFSGzuoJZavLGdO3nX9KZiiNUnindWuFoplvZiBJg8PKGBoMhZlHAWHacP3FTJW+FdnepbaIIOXWgeHLXnSgMQx18CPRousYp/gpgzipP9ICqHFQcOHLiCPWpIYdKG2Ikce3VTmyY9AmkeFB5KZwEVBTlSJGIUlgkWpdi5Nu2hTmyPM+sfuUKCprY/6v6x+5b4dlPkIQuqBCEIBCEIBCEIBCEIGW2v1L/Ae8KkyTUrpt4/ESeA94We4iVY5doXlnTCfEdiTfNZTfEOTEOmTdqSlJtc4dvSyNY0W4kAdlnQKU/QcuZ4oXELf1hzBOnagQwUdNT2NtUvdlYF8hIbrlFnWtF7HG6VwZGLJ/NkrNU5+E8B2paQ3omWK2dLC4ZwKPAg2O/0qSh2bK9gc0Cjw1GqmKZz4Rrjm/OiaYiBrtCNE5nc+OQxvHWFaDXzqICU2hsmdrDIQKGpAIJHeR+CslRCiFsfmpOR96DRPsBgXzkhlEgWdQNOC52jsx8RqRuUngbFH0hagTwRtS0LU2weznNY2Q0WvOUEHn2V6Cn80BjdldV1ehvisVXTGpeNNWSKvbyb1iIGKE3KfnAAtj7Sb0J/PcpmmpfeLeCLCt160h81gOvifoj3qb8n+0n4jCmR4APSuFDgAA2uJWJyAuJc4l7ibLjzJ5+K2DyUtIwPW49K73NXacZE3VyQhCqhCEIBCEIBCEIBCEII3eM/2aTwH2gsvxcuvFafvN8ll8B9oLL5G66rN7Smb5dUvE7pNPakZ22aSmEbRoelESuwcNWIi/mN+0FdnYd7X4t7hTXMGU6a0w2qjsl/x8P8xv2grSXuL8aCSQIxQvQdR10OSiw03X4yfyz7013amDZacaD2loPYTRHuXW6D7dKP+0fuTPZmzzNmAdlLW5uFk1yGuiyr3HzyMAwrwKjdYOtm7o3fDXsUhsB5yzjsi09TlztIGXDQzPFSA5Ce0a6+y/SV5u63TEfyf/0qIHZTz08Nm/jG3fiFaXuJm2gOyEV/pFVnY0NzRE8pGn2hW3oT02OP0owB/pkKpEDuO055hz6E+uxSdbTjczB4dkv6wE6HiB1vuIXm7UjWSTMBHSCAuIHIWKv0+5VnftpxGCwOLcdTGWvPDrENJ8Os16sgt+6OJjnidG17XdFK1+hur194d61H7Sxgc+SUuGQE63plboD6gq55KH1Liacfk5PpDhR9pVF6ZzhRJ1o8eegJpPVNWvau8zngiPqs7eDiOGp5DuVfkaXMscte3ilxhxkyn/34lKYHClunIhakkRxs54NA+J7tFsHk5B+CG/2rvc1Zf+jaNjnxB9HBan5Pm1hSP+473NRYsyEIRoIQhAIQhAIQhAIQhBGbyfJpPAfaCzXIc3BaXvH8mk8B9oKi4cCySs8r8pUYMPzSmGwp7KUkWd2ic4eHuWfYwzwUb2EObVggj0aqVbjJLeSdZAA7QagCkR4coeyljVwnhZTHeTTMKJoHQpHCSGJ2Zpo/d2Ec0pKUg92uqofYzaDpQMx0HAAUL7U2ixD2B2QgZhldoDY9PikXYho00tRuN3hgiFuffINb1jfZpw9KuUL4rFMhZ0khygHTtJ5Bo5lQm1PKHiZQY29SMiif8QivpcvQqzt7axnkLtQPmi+AGlePaotsx1710nFnU9sfbsmHfI+NwBkblcSA4uGhIJPPvSs+3ZXYduFJHQsOZooWNTfW48z61X4XWNdF3G/XXh2nmtIf7K2zPhXvMBAztLXEtDuqaNC+Ci2RE8zQ7CnLyCeP55JWKMAc0DqCe2AEW4aePYVK7Na6goGKNwcKCsWAacqlD2NrnaLR9yWZcNR+mfcFn+Ck11Wkbr/qPrH3BZ/LUS6EIWlCEIQCEIQCEIQCEIQMdttuB47vvCpToKV42t+qd4D3hVeSMLnz7DdkQpOcPhzV0a7aNeteMaFZGuIkYwebk4LKoiMLnEYc9hCdbPHxo8T966xc7nEtJ0B9yyIeaJQO2cYWAiON8sleZGxz8v7z8oOUePGlIb1bW6COm+e4dXuHAu9qYbO2i/DbLw80b8rpMWTK4gOLmiSQOzWD81gHb2LfGalZti5XPe58pJcTR5cNAO6uxISRvDekDHZPpZXZezzuHcrDv9i4Jca+WBwdG4NJIBALw2naGuwK64iH+4HQ11hghPXi4yf7SuzGMhgje4gMBe48A0Ek13DVevieQ4ta4geeQ1xDf4qHV4c+xW3ySD+8Iv4H/YKth2X8HO3GAU18PSt8JWSuI8M2YehNJGRRhxIDbJJAAGpJNAADtKcDCva7LIHNPGnAtNdtGuw+pTPk+wfSbRwrTykz/wCm0vB9bQrh5S4WyzYaYf4kFA9zHE1/Wmk6UfA7KmkFhjy2+IaSNO+lJNwYGla9/G+a0Dd7EPw+zA6MgET1wvQkWF5vlsxpxBoAZmBxrt1F+xZtXFM2fs2Tzy05QeNGvSaUyyADsVxwGHrZ5iHnOhlcPEHT3hULCTG6KgcBlFaJuef7P9c+4KkQRlyvW6keWCv3z7gk7WJlCELShCEIBCEIBCEIBCEIGe2D8S/wHvCqwkVn24fiH+A94VVwzbXPn2HEIVgP69n8v8VCRtUm3HcCW9YCrWJVJYBvxvpP3rPN8t8ZnySRMPRtje5ti85ymjqOGo5KU3j3idhsVCQC5rGue5gdlDy/MwWe6iVnONxofNJJVCSRz64kZnF1d/FdOPFnlXOJxr39ZxJJHEkk6+KuUkZfsTBt0Bdi3N15ZpJwPeqcxmblz8Fcd3dutiw7YJ4BM1knSx60Wvsu5jtJPpW6kVHezY8mEldC8tc4NDupdHMLAFjitkk2Sc74+kjynZ4gEQPxmYZutX0aICyrb2MfPijiZWjV7TkvQNYW00HwHHvT6PfB36UOP6HQxdF0efXLTR52XtbaX5J8GnkllLtpQ/wP+wVpcmLbiNn4qf5/QzQPPfA+ZmvtP1llu6uL+B4sYkRFwGYBmatHggC65WOSlNnbyuigxkHREtxLpHDrVkMth3LXl6ilhCvkohBxxdp8XC832E5Wgn0Eqb3xwJZg8Fb2vMZfGXsNtOYXofqUqnuzj3YRuI+KLnTwmMOBrJYdrw14j1J9h8c52BZg+joslMgffIl2lV+8eaUWrCuH6KH88D2hP97ifhAH7g97lFbsbTDYBh5IBIA8v1Ol8rGXlSd46Zz5DI/idKHAAcAs2rFowmG/U24CoS0tvrHNlNgfVKo0ez6dQ4g16lY3bQJlZMGHqjLV8qI4+lcRstxdVW4muyzazapnh9nHQq17BbUdfvH3BRTnhTGxXXH9Y/cnHsP0IQugEIQgEIQgEIQgEIQgabVHxTvAe8KtsYrLtIfFu8PvCgwxcufavGKE2tvbhoQaf0jxwY2zZ/iqqVX3v3ldJIYIXgRt0c5p888xf0RqO9VKZ2t8SaHb6Qrx4f2zaf7U2k/EPMjzqRwHBrRdNHdr7U0hb2diZSyUNNQnWAfbexdcZLAHXRP45tOPp5eikyfoCUm2+/8A4UDrEgnXThdX9ybNbRvvQH8T2ahcufyQSsLQ8jQpdkAul5s+PqirPu8FMYeBtcVKptFhXWK4KShgJPBKtj7EtAw2pQ6wWEANqSZBeqRw0emq7xGOjjFvc1o7SQOHisW60VaK0SWJxDWNL3kNa0ZiToAB2qAxm/eCZ/i5v4AXKmb0byfDHhjC5sLfmE1ndd5n1y4UEnG01J71b4mVoZDmjaTq+6e4DUAfRHDvV78kLycCSSSenfqTZ4MWIu0ygfNOt62Koa9mvsW3+SM/2D/zP9zV2zGYuyEIUaCEIQCEIQCEIQCEIQN8f+rd+eYWd7xbwFuJhwsfzpYxKdCMr3NBjo9oOvcVomP/AFbvD7wsX2mP70bdfKo/D9YyvTSxfuKS30wkcW03xRsaxgMVMaA1otkZPVGmtn1lW7au7ULNrYUCGPoJWPBjyjIXsY8m28OBYfQqx5Qm/wB6vP78X/1xrVpgyXEBunSYZ7ZB25ZYpGe/N/lWqjBN4WtbiZ2NaGtbM8AAAABrzQA5DuS+wcWyF7XvhbOxt2x9U6wQLsHhd8OSR3gYXY3E9gnk+25eYZlacqV/CND33kw0UEbY8FC108IeHtDWujNtNCma8auwm+7PQRbNlxMmGinc2fKA8CyHdG2sxaarMeSPKL5uD/8Ajj/an26skbNlymaPpY+n1ZdXfRAeo0VFVGGeOfGxkQMijkmjHRCiwNtjSOABB1J0HFXmPdiFm1a6GMwvhLwzI3IHDK002qHC/rKr7IwN4qN7RTenaWj6IzggegaehawGB8ub50RLfQ9rXfcPUppGWR4TLemln1WpXdtjXYiNjm2C42CLB6p4hOzhdXWOZ96d7EwNYiN3efslZ0xJQ7NZ8McMjcnRhwbQy603h4gpjiMMBK+hQDjQHClYmVQf84uDL7myn/lQm0XgSOsgW+te8gD3qVXO+OJbhcEZWsBc3IPS/q6ns1VA8nBZjMXO7EsZOOgc+pAHCw9g6oOjRRIFK4b74eSTDbTa9h6MRxPiJrK7oxmkrXkWqoeRogYqdvL4KSfS+O6/PJdJPhL2Z727Kw02Aw2Pw0EeGL5DG+JnmdXOLFBou2caF2pbdqHB4XZ+FxEmHilOIxBjmklo9E3O9pOoNABnDS1Bb27ewzsNBgsGx4gie6QmQjM5zs5oUTze4612J3uDtWOVjtm4oHoMTpG76E3AUTwJppH7ze9a/CILb8GHbi5xhnB0JcCwjVoDmgkNPMAkjwWseRxlbP438c8+sM0WLbXwr8NPLh5R1o3FpI4GtWuF8AQQfStl8iz72d/53+5iUi+oQhRoIQhAIQhAIQhAIQhBCb6zFmBnc0kENFEaHzmjisSwE3x8UshIDZmPcdSaDw5xPM8LW07+fIMR/CPttWITM00tTYlSO+W145se+eN2aIujN5XA9VjA7RwB0IPJWxu+uGbtR2IbIfg8mHbG52SSw5hc5vUy5jxrh85ZzNhCfBcx4U8K09qbA72lOyTETPYSWvle5pojRziRodRxTiPDHjXf2e70IwWArXVTmHYFLYmJbemWPEtw/RknJEGnQijp2jXgpPd9sAwbsPM8tzSZtASdMhHIji1Q+GHapKKO1j2aPcNhomytMZJY1zTZFHQgnSlYMPi2iZ7r6rq5HiABw49qhsKwAJZ0g7Vn2V09ov0pXBvDXtceAP3FNTMO1N8TjGsaXOcAALJPIKaJTFbWjjZme7KxsuYmj5pNjvJsnTis7xm34sRtGOQzZYI5w4AtcA5rSHF3iarUKF3s267EuaGAiNt12uJ5kcAoXCsANyA9w7D21Rtd+MjFq+YXfCJ+I2h8InkOHnY5sDSJHNaKyimVbM13qAoHyb7dhw2JnfO7I10BjaQ1zreXNI80E8AVU8bGL6gdx5mz7AuGxvA5tvuN/wDC18JtdTNF6cRx7PQVftibd2fNg8LBi5nwvwcwlblY5wkDXFwFta6uNHgbGnFUMGtALJ9fikOhrWjryVuE1Ib+bYbjcbNPHbYzQFjVwY0Nst5E6+ilrvkKv9Gm/wD+iT1dWlhMsVGsp9q3nyIAjZpv9u/3NUajQEIQooQhCAQhCAQhCAQhCCG3w+RzeA+01ZfBCZXBjSQSDqbohozGsoJugeS1DfH5HN/CPtNWYYWcsdbR2jrDQ5mlp0J52V4fqfvn6dvH0enZLyGUW9ZrXN4/PIDb/wAwvwKZQwnrgvaTGC404EPGahlrXWxxriuxj3h1iiQGAcCPiqyjXh5otI4actzPAGaUEOJaNA4EkMA83SwuOxvKft2O93BzT1mtsZuL8lVbeWdvLmkX7KcA8kgZbsjNrkcG+9w4jxpeRbYkFgCusH6tGpYG1X+VmnckJdpveHDqkOvN1ebi1xI7DYBtNh8lWYBxl6FpaXtFFxLsvmjnXG65ezVcR7OdmjaSCXtDsxzU0FuYXproOVruHHvEnS6Z6rgA0AAAANvuC5binh4eKLmgDUaUGhgBHPQKbFylo9jyHIQW08vDSCaOTNZ4fumvELx+y3NaHFzaMfSDzrLdBWjePWHr46JaLa0rctUC260A84270cUzxOOkLQCQAGdHVfNttCxz6vHv703iZTg7DkFasFvcy7NWzpMx4cPiz6wkYcNmY99CmZbrW8xygg8xaVh2zNYNjSQvFixmdnvT67vZ2LhuIc1sjb0kILtATocw9qWxPks3d97mxuDmgSHq2SdQHGhp+4fWF6MBTbzN1jMnzuDTXZ+aKRdtZ7WxtB0YbaKBrjr7SvTjX5Q0VWUt4Vo6r8ToNU2GU5k2U8F2rdJBH84dZ2UDiOHWHtIuk2ZsiQtDyW6xdJXY2g6uHGiEn+mZQXGhZk6Sg3TMCNePd71wzbcuUNIH6sxnq8jQ9dDj3cFf+T5KzYJweWZgSGZjRNUGZyLrjQ7KKVh2TI4AitY+k1J83MWVw46X4FIDaLnPEhDbyllVTcuUtOnpPrCXj2tK2gHDRhYNB5tAV7PaVJYuUyxmDfG9oeWkubmGUmgDelEDXQrRfJ58lP8ANd7mrPsfi3PovANNDRpyFns46lX/AMnA/sh5XK4+xq7/AE93m5+TpaUIQvc4hCEIBCEIBCEIBCEIIfe35JN/CPtNWQbQ4s/PNCF4fqvun6d/H0dy+d9U+8JAcfSfc5CF5nQr84/wuTXA/P8ABvuXqFSHsXmt9H3LzEeafR9yEKFcxcT6EiPNf4BCEDh3AeCbc2/xD/chClZOm8HeBXOJ4fnsCEKtR5BwH55JRn59aEKREfH5zvD7ylDw+oUITl0sLYrmtK8n/wAl/wDIfc1CF6fpvvc/L0sqEIXvcAhCEAhCEH//2Q==</t>
+  </si>
+  <si>
+    <t>I bought this for a Father's Day present and my father loved it. I buy him lots of books and I've never heard him go on about a book so much - he absolutely loved it and ordered Adam's book "Along Against the North" before he finished the first.</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTEhIVFRUVFhgYGBcYGBcYFxgVGBoaFhgdGBoYHSgiGBolHRUXIjEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGyslHyYtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARwAsgMBEQACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAGAAEDBAUCB//EAEoQAAIBAgMDBgkKBAQFBQEAAAECAwARBBIhBQYxEyJBUWFxIzIzcnOBkbGyBxQ0QlJTkqHR0hZis8EVJHSiNYLC4fAXJUSD8UP/xAAaAQABBQEAAAAAAAAAAAAAAAADAAECBAUG/8QANxEAAQMCAwYEBQQDAQADAQAAAQACAwQREiExBRMzQVFxFCIysWGBkaHRFSM0UkJy8CRDYsE1/9oADAMBAAIRAxEAPwCHF4mTlH8JJ47fXb7R7axXvdc5ruoYY923yjQclLsrHMuIjZnkKqJWZczG4WNmtYmxOml6rVJe6EtBsTbmqm0WRtjBwgZrZbfLDg2yzkWa5yEAEKWAN9QWsQL9IrO/TqrnIPqsYTM/qkm9MUvg1SZGkje2YAFWAkFit81vBNzgLC6341IUNRG7GZLgHqlvGOywoYw+KkyL4WTxV+u3UO2tZ7nYjmV07YYsI8o06Lv51J95J+Nv1qOJ3UqW5i/qPom+dSfeyfjb9afG7qUtzF/UfRdfOpPvJPxt+tPjPUpbmL+o+iYYmT7yT8bfrSxO6lLcxf1H0T/OZPvZPxt+tLE7qUtxF/UfRL51J95J+Nv1pYndSluI/wCo+iXzqT7yT8bfrSxP6ptxH/UfRI4qT72T8bfrSxO6lNuI/wCo+ib51J95J+Nv1pYndSn3Mf8AUfRL51J95J+Nv1pYndSluI/6j6JfOpPvJPxt+tLG7qluI/6j6JDEyfeyfjb9aWJ3VLcxf1H0S+dSfeSfjb9aWJ3VLcxf1H0S+dSfeSfjb9aWJ3VLcxf1H0S+dSfeSfjb9aWJ3VLcxf1H0T/OpPvJPxt+tLE7qluYv6j6JjipPvJPxt+tIvd1TiGL+o+iMNmSMYY7sT4NOJN/FFaEZOAZ8lzlQ1omeLcz7oRxnlJPPf4jVB3qK6KDhN7BS7HQtiYlDFCwlUOvjKTE1ivaKq1L8EJdbSyp7TF4wB1Wt/hDqA5xsq8nmjKqGVLvdSWVpWNzdTfN0XFr1VO0MTrCPXO/ZYwpHEgA8ksLsF4Gu2LebkMNIjKymzF8zXvyhytrwIa4FRdXCQWwWu4Ifh3NaHXQ9sxAxhU8GyA9xtetCofhY4j4rqSSIbjojfE7s4VVchGuFYjnNxA765qLaU7ngErIZWTEgXQIDpfsrpxdbtr5lGmzd3MO0MbOhLsgJOYjU1zlRtGZkrmg5ArFkq5Q8gHK6r7xbDgiw7yRKQy5frE6XAPHvolFtGaSUNcclKnq5DIA45LRG7GF05jagfXaq79p1AcQCheNnzzTjdjC/Yb8TVE7UqeqRrZ+qq4Hd/DOZgyHmSlV5x8UKp95NHm2jO0MIOoU5Kyazc+StruvhSR4NvxtVf8AVajqhGsm6qjsjYGHkjLOjE8pIvjEaKxA4dgq1VbQnjeADyCNLVyh1geQVz+GML9hvxNVb9UqOqF4ybqh3eTYow5VkJMbm2upVhra/SCK2Nn13iLtfkQtCkqjL5X6hYxNaSupCko3T0krpUk4SpJ0jSTIz2X5GL0afCK0Y/QOy5qp4z+590JYzyknpH+I1nu9R7roYOE3sFZ3f+lwdnKH2RteqtY0mncOyqbSd+2O6xtq7/YCYy2WdRIFBOSMnm3GYc/pBGnZVmm2XURRhpLf+5LGh2zuiPJey19zd5sPMsmGiWZmMU0jSyZRfKoAFgxPAga1Vr9myxls7iLXAsE0u0hUyZNsLKrsfxoO+P8AtRavhv7FdK/g/Jel43xJPMb3GuNg4je6wGeoLy0Dm12pOV/gulvkvUB4OMdSRj8lrjHjeSn4lcyfM4/EqvthM+FlFuMRPsGaiUpwVLe9kSE2lF+qxNz9ozSyOskjOojBANtDe3VWntanjiYHMFiVcr4I4wC0aq/vXi5IoUaNyhMgBItwsT091VdlwsllIeL5IFJEySTC4ZWTboSs8Lu5zM0rXJ4k5VH9qfazQ2YNGlk9a0MkDRpZUd7dqTQzIscpQGO5AtqbkX1q1sqniljJeL5otHBHI0lwvmtPdRicKhJuWZyT1ksSao7UFqghVqoYZiAoopT/AIlIuY5eQU5b6XB4269TUntHgGm2d1ItHhged1HvsP8ALr6VfcaJsfjnsp0HF+SCq6VbKVJMnvSThPSTiycimCS5anSRpsvyMXo0+EVox+gdlzNTxn9z7oSxnlJPSP8AEaz3+o910MHCb2Ctbuj/ADmH75P6bVTrf4zv+5qntMWjafis7Z+6mKn2nPiZ41w6c8o2WNwzZrIVW9r21zdlWZtoRQUjGR+Y5A6rmI4XOeb6I7j2fHh8MYkUAJCy3soduaSSSONzrXO+IlmnD3XzOnIK+I2NZYII2P40HfH/AGroKs/tv7FdE/g3+C9LxniSea3uNcZBxW91hM9Q7rzLCJmaNet1H5iuylNoyfguhkdZhPwXom8EmXDTnqjb3Wrk6MYqho+KwIBeRo+Kmwozwr/NEB7VqMnkqD/sov8AK890Kbii0sg6o7exq2tsG8LStPaBvG0rS338gnpR7jVTY3GPZV6DjfJPuT9Gb0re4U22B++OyVfxvktt1jvzwhNvrWvbsvVCIy//AB3tdU7vt5b/ACWbut9GHpJPjNH2jxs+gRajiHsFoqkediAvKWAY6Z8vRfptVYmTdgH0odzb4IZ315bwd7cjc2txz/zerhW1sfd529Sv7PwYj1Qua3FqJqSVl3DHmIApibC6iTYLueOxI6qYOuLpmnJcynU04UwuadOEZ7L8jF6NPhFaMfoHZcxUn95/c+6EsZ5ST0j/ABGqDx5iuig4TewSwMsSzR8s2WI8orkkjRo2FgV1ub9FBmDzGd2Luysqe0gTGAOqsSS4BWDQ4eeQhQmdmMS5FbMAAdeOviihNZVEedzRzta+azGUEjtBZS4ObZsfhAJoJEikVRKWZOeuUjMCym9h0g1B7K0kNOFzbgkjJDfRvjOYKz9kDnwX64/7VYquG/sV0L+D8l6ZjfEk81vca4yDiN7rBZqF55u/CTiIAVYc8HUEeKC3T3V1dXI3w7rHktyokbuXWPJehYrDrKrRuMytoR11ycT3RuxN1WGHFpuF3DGECqBYKLAdQFM9xcS46pib5lC268eXF4leq/szn9a29ouxUsZWjVuvDGrW+/kE9KPcaDsbjHsh0HG+Sfcr6O3pW9wqO2OP8kq/jfJZm/ERaeM5S3g+gE/WNXdjuY2I4rao1AWhhutvdMf5SMdr/EazdqH/ANBVWqP7xKhhH/ukn+nHvFTk/wD5zf8AZO7+KP8AZNvr9HX0i+41LY/H+SnQcX5ILvXTLYSvSSU+DTW/V/ehyHKyFKVMQLtfrFQHJR5BVZ/GNGbojN0XWHizBhTPNgmcbWRbsvyMXo0+EVpRegdgubqeM/ufdCeM8pJ6R/iNUXaldFDwm9goajmiJUyWqVJJTYJrSxkmwDqSey9CnF43AdFGUExkL0NtpwX8tH+IVyHhZv6lYAik/qVSxmMhabDnlkshkJOYaXWw99W4oZhE8FpzsiMjeGO8p5KLePaEZw0gSVSxsAFbncRe1qlQU0gnaXNyU6aF2+bibku9g7QiGGhDzKGC6hmF7gnjeo11LIZ3YW5KNRE/eus3JUdm4mJcdiWMi5WVSGuLE6XsatVMUjqSNtjcI0rHmnYLG6bfDFxvCgSRWIkBIBB0saWyYZI5SXC2SeijeJbkcl1uhjI0gYPIqnlGNiQDawptqwSPmBaCckq6N7pbtF8luptOAHy0f4hWb4acf4lUjE8j0lZ2w8dEsRDSoDyspsSOBckH11arIJXSCzToEWaJ5dcNOgVNcbGNol865Ghy5rjLfja9WTTvNDhtmCjbp5pbWzupN68TFJhyEkRmDqQAwJ6jYeuo7Lhljmu5psmpGvbKLgoNFdEthKkkrGENDkCFIFZHja9JoaHdU8SOdRmG4RmHJS4DiR1j+1M/RKTkinZvkY/Rp8IrSi9A7Bc5UH91/c+6EsX5ST0j/EapO9RXRQ8JvYKKooiemKdNSSXEzEKxFrgE68NOupMALrFQkcWsLm6hUPnzCwMQ1CG48UZkL2676WqxuW3yKzzXSDVq6XGEwpIIwS7AZR2nW3bbrqG7BeRdENW8Qtkw5kqOLaZOojFsjPrcMQrFSLdeUE99TMAtmUIbQkOjcrXVjBYzlS148oUXN+Jvqlu9bE99RfGG2zR6arfNe7bWCrR7UJAvGENkJLE5FzkjMSPqWHfc61Mwjqq42jIRm2ylixrHJ4MeEvYi9uaTnPDxcozL13qO6bnmieNkNvLqn2fjuUyBgoLqSOu4Nra9mtRkiwglpU6asdI4NcAFFPtBlBPJLblWQXvqF4ser3URsTeudkF9dK3/AB52XUm0CC/MU5Q9luc6lNFz9AVjwI7Kbci2qc17w4+X5flS4HF8pmBTJly2B4m9wf8AcpFQljDLWN0WkqnTF2IWVsKOqg3V25XVK6SY0klNhhrQ3ob1p5L307argquq+MVSL63FuFEjxBTaSNFXRcrnsP5UUm4U3G9kW7PHgo/MX3CtGP0DsFz1RxXdz7oQxnlJPSP8Rqm71FdHDwm9goaiiJUxTpUkkzH/AM/840uybIZlFGzNw8XMgdjHCCLgMCWt0XA4d1WmUj3C5NlkzbZgjcWtGJRbX3JxWHQycyVV1bJcMB0nKeNuzWk+mkZne6en2vBI7DbDf6LnZW52KxMKTxNFkkGZbkg24a6dlM2le4Yr6p5drQRPLC3MZK2fk+xv2ofxN+2peDkQ/wBbp+TSqybl4oytDeLOqK51OXK5ZQOHG6GmFK+9roh2vBgDyDY5fRT/APp7jftQ/ib9tS8JIh/rVP0Kr4fcvEvJLEpizRFQ2ptz1zDLp1UwpXk2vopO2tA1rXYTmrP/AKe437UP4m/bT+Dkvqo/rVP0Kx8ZsHERTpBKgV5SFRr3Rujxh1dR1oRhc1waVbjrad8RlbnbXqtTEbhYxEZ2aGyqSbM17AXP1amaSS1yqrNsQucAAc1Dsjc7E4mFJ42iySDMoYkNbtsKTKV7hdTm2rDDIY3A3CWF3NxUkksStFmhKh7lrXYZhbTqpNpXE26JO2tExrXWOatH5Pcb9qH8TftqXg3oX63D0Kh2XuhiZWkCGPwUhja5PjCxNtOGtCNI99wOSnNtWFoBscxddy7KkTErh2I5RiLG5ykMLjX1H2VTfTPbJuuZTtqmPhMo0CbeDdqfDRmWQx5AyrzSb3JsNLVYfSPiZiKak2hHNIGNBusbEeM3/L7hQG+lXm6BFez/ACUfmL7hWlH6B2C5+o4ru590G4zyknpH+I1UdqV0kHCb2ChqKKlSTJUklo7tQh8Zh1YXBlBPqBYfmBRYReQKpXvLKZ5HRes727QfD4OaaO2dEutxcXuBcjpAvetWVxa0kLkKSJsszWO0JU+wsUZ8NDK4GaSNWYDhdhc27NaUZxNBKjUMEczmjkULbr7zxpKmz1he6ySoHuuXml24ceygRzjFgAWjU7Pk3XiS4Z2KK9tbRGHgkmKlhGubKLAnuvVh78LbrNghM0gjHNDm6O3FxuLmmVGQCCJLMQTo0jX086gQSiR5I6LQrqR1LC1jjfMn7Ba29O8a4FEdo2kzvlAUgEaE9PdRJZhGLkKtRUTqpxa02ss3cjagxUuMmVSgZ4hlNrjKluiowPDyXBG2hTGnDI3G+R91oba240GKwkAQMuJZ1LXIK5QCLdfGpPkwuA6oEFLvYnvv6VHvhCCMMx4pi4bHqzNlP5GlML27pUjiMQHNpWrtr6PN6J/hNEf6Sg0/Fb3Cyfk7/wCHYb0Y95ocHoCtbT/lP7p9gfTMf58P9Okz1OUajgxdj7pb1b1LgTGGieTlM3ilRbLbjfvppqgRaqVFs99VfCQLKtuBixMmJmAKiTEMwBtcXC6G1Rp3h4Lh1UtpQmFzYyb2CbefCf53BTAcZCjewsv96DUs/eY9PSSf+eVnwun+Uv6CfSR/EKJW8Ep9kfyh2PsvN8UNWPm/2rGYcl07CinZw8FH5i+4VpRcNvYLnp+K7ufdBuM8pJ6R/iNVXaldLDwm9goaiiJUxSSpwkrGzsYYJo5gL8m4a3SRwIHqJqbHYXByDUxb2J0fVe2RSQ4qC4yyRSr6ipGoNbAIe1cQ5r4JLaEIJ3iwm0cBGDhMQzYWMABMkbPCo0GpW7oOs6jpvVSYSxi7DktejfSVBwzN85531Q7ubKX2jA7G7MzsT1koxJ0qtTm8t1q7TaGUhaNBZek78fQMR6M+8Voz8Mrmtnfymd0I/JL5XEeZH72qnQ6lbG39GfNF+9O7q41ERpGjyPmuoBvoRbUdtW5oRKACsairHUri5ousjcLAjDzY6AMWEcsYDG1zeJW1t2tUaePBdqs7SmMzY5DzB9yrG82Alkx2z3RCyRvIZG6FBUWv308rC57SoUkzGU8rXHMgWVze8jJAOvF4e347/wBqnKbAd1Xpb3d/qVsYzD8ojoTbOpW/VcWqZFxZAjdgcHDkVW2DssYXDxwKxYRrlDG1z32pmMwiyJUTmaQyHms3d/6Zj/Ph/p1Bnqcj1HBi7H3S3p3VTGmMtK8fJ5rZQuua3G47KaaAS2upUVe+lBwgG6qfJ7heSjxEdyQmIdQTxIFhc0OlsAQOqJtSXePa88wERY7BiTJfijq471/7E0d7MSz2PLb/ABWF8osZbBkD7yP4qr1xwwm6v7JP/pHYrz7EQXvrbh+VYDJOi6VpRFgAOSj4+IvuFbER/bb2Cwp+K7ufdBWM8pJ6R/iNVnaldJDwm9goTUURKkklSSU2Bw/KyxxA2MjhQeNr9NumpNGIgIc0m7jL+iPMHsPFbLSSdcSskSAvJBkID24lTm5j9vA9NX2RuhBN8lzk1VDXvazBZx53Rps7FpiIUlXVJUDAEdDDgR+VWwQ9t+SyJY3QyFp1BXl2wMKItriJfFSaUAdQysQPzrNjAFRZdPVyGTZwcdSAvQN+PoGI9GfeKvT8MrB2d/KZ3Qj8kvlcR5kfvaqdDqVsbe9LPmiDf/bU+FjiaBlBaTKcy5tMpOmuhuBVqoldG0ELM2ZSx1Eha++nJUfk0xjzHGSyEF3lQsQLDRAosOjQCh0khfclG2vC2FzI26Af/q2t5d54sEYxKsjcpmy5AD4tr3uR9qjSzCO1+ap0lDJVXwckE47elsbjMIqoUiSdGANszPe12toAATYdtVDPvHtAGV1sM2cKankc43cR9F6XtKYpDI6+MqMR3gEir7jYErn4Whz2g8yqG5+0JMRg4JpSC7pdrCwvfoFRicXNBKLWRCGdzG6BVt3/AKZj/Ph/p1GP1ORKjgxdj7qjvrt3EYaXDrCygSZ8+Zc3i2tbXTiaBWVDom+VWNm0cc7Xl98la3FkLRSu3FpmY95AvQ9nPL4y46koe02BkgaOQWzgsXneZOmNwPUyhh7zVtkgc5w6Kk+Mta13VY/ygAfNDf7yP4qrbS4B+SubLP8A6B2KAJ7dPCufaulBzRFgx4NPNXo7BWxCTu29gsSbiO7n3QLjPKSekf4jQnaldJBwm9goaiiJUkkhSSU+zsQIpoZG8VJEY9gvqfVU4zZ4JQalhfC5o5he17ZwfznDSRKwHKxkBuIFxoe0VsPbjbbquIhk3MoeRoVxsDZ/zXDRQlsxiQAtawJHE26BSjaGNt0T1Mu+lL7alebbCxIl2wJF8V5pSp6wEYX9dqzozeouF0tSws2bhOtgj/fj6BifRn3ir1RwysHZ38pndCXyS+VxHmR+9qqUI1Wxt/0s+aNdv7Bhxiqs4YhGzDKxXW1ujvq7JE2QWcsKmqpKdxdGbFZW6Gzo8NPjIYrhFeIi5JPOjudT20OBjWEhqPWzvmax7znY+6wvlZ8fC90v/RQK0elaewf8/khHYH0vDemT31Vh9YWrW/x39l7Rtr6PN6J/hNa0npK42n4re491k/J7/wAOw3ox7zQ4OGFa2p/Lf3T7AP8AnMf58P8ATp4/W5QqD+zF2Kt7Z3egxTRvKGJjvlsxXxrXvbjwppoWSizlCnq5YAQw6qvupAsfLxrfKs7AX1NgBQKJgjxNboCp1khkwudrZVdn4rLtPER9EiKR5ygf2P5UKKS1W5iPLHejY/oVPv19FPnp76ntLKA91DZn8gfNefTD3Vz7TZdKNUQ4PyaeavuFbcJ/bb2Cwpj+47ufdAmL8pJ6R/iNAd6iulg4TewUNqiipqSSVJJdwxF2VBxdgovwuxsL9lOBc2TPeGNLjoEcbP2VtrCIRHLDyagkK7ZwoGpC3UEDsvarrY6hgyXPSTbOndcg3PRUoX2rtOEssiCEkqVHgsxHEEgElfX11BpnmblZFc2gopLOBLteqrbO3Xx8c5ELQrNCFN81wokDAcVsTYHoqLKeVrvLa4R59pUskdng4T8Fc2xDtfmYfETxsMSTGqjLYkDMcxCAqLCpvbP6XHVAp3bPzkY0+XNVZNlbR2ajTB0jU5VcoQ542XRl4XP51HdywguBR/E0dc9sZBJ5LS2W228REs0WIjyPe2bIDoSDcZOsURm/e24Kq1A2dC8xuabj/uqyNn7R2k2JljgkLTs1pSFTLdOYCxIsqi1u2htfMXENOasywULYWveMrZara2lujtPEhTiMRC7JfKLEWva+qqOoeyiup5XjzFVYdpUkBO7YRfVCeOwOIwcqiReTkU5kbRlJHSp4G3UdaquY+J2a1op4auMgZjmFal3sxzKVbEEqwIIyR6g6HgtP4iQi11BuzKVpBDc+5UeA3kxkMaxRTlI0FlXKhsO8i5pCeQCwKlJs+nkcXObmU8O8mMRndZyHkILnKnOKjKNCNLDqpCeQXN0x2dTFoaW6aZlWsPvdjywBxJt5kf7ai+plA1Qn7MpQ2+H7rQ/xvExklZcpdszc1Dcnp4dlUWVczSbHVCNFA+126KqNoTcpy5fwt/HsOq3C1uFQ30m83l80Xw0W73dvKrWK2xiJkyyyZluDbKo1Go4CpS1MsjcLjkhx0cMbsTRmqLki1jaq6s81v4S2RPNHurbh4bew9lhTcR3c+6BcZ5ST0j/EaC71FdLDwm9goaiirmkknNJJWdl+Xg9NH8QqbPWO6DU8F/Ze4bTNoZT/ACN8JrZf6SuGi9be6ydxcDyOAgUixKZ2735599DgbgjAViul3tQ5w7LH3CxvL4vaEvENIgXzVBQfkv50KneHucVb2hFuoYW/BXt6/pezf9Q/9JqJL6moVHwZv9R7rY3gwHL4aaL7cbAeda6/mBRJG4mEKpTSbqZr+hWV8m5J2dBfjZr9+dr0KmFowFa2ob1TiPh7KD5P8MAMZJ9Z8ZMCf5UNgO7ifXTU49R+JUtovJ3beQaFdxG2pF2jFhAq8m8DSFtc2YGwt0WsPzqZkO8woLaZppXTXzBsqvyk4VWwTsRrGysp6QbhT7QSKjVNBjKNsiQtqgORXlFZOi7D4pWpJrpdvR19FJLEFaw0VnjPQSCe6hvIIKE912FbeLj59rdP5VQ5qrGclW6D304zKIpEPCkU10npky3cJ5NPNX3Vtwj9tvYeyw5uI7ufdA2K8pJ6R/iNBd6j3XSw8JvYKOooqakkkKSSs7MPh4PTR/EKkz1jug1PBf2Xu00YZSp4MCD3GtwrhAbZrL3lxRw+DmdBqkZCgdH1R6he/qocpwsJCPSsEk7WnmUIfJEtvnP/ANfuaqlDoVsbe1Z2W7vZ9M2b/qH/AKTVYl9Te6oUfBm/1Huig0ZZyp7HwAgQxjhnkYdgdy9vVmNRa3DkiSyGR2I/BYu4Pk8T/rcT8dCg0Pcq3tD1M/0aqG38Fin2kJcJyReHDqDypOW0jycLeYahI15luzkEemkgFLgmvYu5fABZ+9TbU+ayfOhhhDYZuTz5+Ita5txtQ5jNgOKytUXgt+3dYsXK6BKzz8F0WSt7OjDMc2oA4ddDlJAyQpDYLQmhzAaCw4C3CgtfY5quHWKiwZJkC9Vh2jtFSk9N1N48t1rYmIk3493H11TugMKrSxAdlO0qd1xEeFScnKdxTJlu4MeDTzV9wrch4bew9lhzcR3c+6BsWPCSekf4jQHeo910sPCb2ChtUUVPSSTUklZ2b5eD00fxCpM9Y7oNTwX9l7pi5siM/wBlSfYL1tk2C4RoubKGeNZ4GHFZYyPUy6e+okYm2U2uMcgPQoF+SZCpxStxVkU965lPuqnRZYgtrbbse7d1C3N6/pezfTv/AEmqxL6m91So+DN/qPdbW1MdyRhvwklWM/8AMGt/uA9tEe61lSjjx3+Aur4qaGhncPyeJ/1uI+Kq8Gh7lX9oepn+gXE2PdNrrEAMs2FBYm9xybOVt+M3p72mt1CcRB1FvDyd7qb5Q/8Ah8/cvxCmqeGUtlfymLyCshdktDZ6c4d1AmPlQZExvPKYTNyMa2Usts8kjC4RSdAAPfU2t3UePDc+yyJ5TI/ADYJKseFIlSWSWLMFcPqUN7ZkNhmF7gindjmbYix5KEcm5abG4RNILns6O6s4i2SuN0VOYXvSvZFCrw9FScpFdvTBMtvCHwaeavurch4bew9liTcR3c+6BsX5ST0j/EaE71FdJDwm9gojUEVNekknFJJWNmeXg9NH8QqTPWO6FUcF/Yr3DaYvDJ5je41tO0K4aLiDuFkbhYvldn4djqRGEPenNPuocDsUYKsbQi3dQ5qqbsYHkcftBeh2ikXudST/ALg1Rjbhe4ItVNvKeL4Ahdb1/TNm+nf+k1PJ6mpUfBm/1HuoflPmMeEWReMeIhcd6tm/tTVJwsv8VLZLMc5aebT7IrwswkRXHBlDDuIvRwbi6zntwuLShvcaQWxaXGZcXMSOxyCD7/ZVWmdfEPiVer2n9s//AFCtz7EZtoR4zOAqQtGUtqSTcG/VYmjmO8mJBbUWpzBbU3UHyhH/ANvm7l+IUOp4ZRtl/wApq8hJrIXY9Vs7MhFg1VZ3Z4VVlcsvY6LnxEmUmblDybAFyIyxU+D4G2Xjr4wq3KTZrb+W2ax2sFy/4q5vbhlEBdYQJJgqOx8cdNrdel6FSvcXYScgpzMAYTzK3oUIRR1KBr2C1Z7zdxKusADQFG630vUUQrlksbVJIG6gxJOlSYpDVbmDPg081fcK3IeG3sPZYcw/cd3PugfG+Uk89/iNAd6iukh4TewUAqKKnpJJjSKS7icqyspsykMOwg3FIGxuEzmhzS06Fbj7549gQZlsQQfBrwOho5qpCLFZ7dk0wINiquyd4sVho+SgkCoCTYqG1Op1NQZO9gs1Gn2dBM7G8ZqwN78cHLiVcxAUnk11AJI+I+2p+JkGaF+k01rWNlDit5cXK8bvIpaFi0ZyAAMQVJI6dDUXVD3Hspx7Op2Nc0A2Oqbam8WKxKcnPIGS4awQKbjhqKd873ixSp9nwQPxsGanwG9eNiVIklARAFUFASFHDU8adtVI0WCHLsymeS8g3KsYXGyxOZonyyMSWPFWJ1IZeq9UW1D2SFw5qL6aORojcMgo9qb342ZGid0VWBDZFKsQdCM1zb1VeNU94slDsqnjdiAJ7qnid4cVJD83eQGKwXLlANltbneoVB073NwnRHj2fAyTetFiqJw7C1wQDbXo1oOMclaxAX6rbwUeWNbG9maqEzvMqbjdyx9uSrCsSKSspJylTY2bVu8E9HZVyma+S7naKjM9jPKNVFs3ZUmJYSOxMcT6kkks41stGc8RtIbqUBxDnAO0RcL8SDqayLHO6v4gcgVww51MiA5KLEJYg9f9qne6TSq2PW2W/VU2KbDmtvBN4NPMX3CtuHht7D2WHPxXdz7oKxnlJPSP8Rqu71FdJDwm9goKiiJWpJ0hSSTXpJJXpJJxSsnunpkkxpJ09OmTqaRyTLfwSXjFxrrf21nTO8+SpuABuszF4e1zY9P5catxvuEVj+SoijFHW28ZMaqovr06euqIdZxJVPLEpMbihBCWBU2N8rHVjbS1ShjMz7clTqJRGMSBcHs+fGYpnY3YEZm+qnUB2DqrYmlZTx4QseGKSeXeOXpmBUQLGgsY05o6y5Nmcn7V7C3Rc1nZvFzqiyHzlPiBJLcRyqo43KljcdQuLD21BltHBRNxmFBhyxJzDKw49R6LqekVWlbhOS1YJcbVLiEFr9VDBR2qntHxFBtx6+i1FYpR6rXwJ8GnmL7hW1Dw29h7LGn4ru590FYzyknpH+I1Xd6j3XRw8JvYKEmooqVJJK1JSskRTXTJrU6ZPekklelZOmNKyV04pJrpy6rdnuFUZmtxsNTbtprEmw5ocsm7jc88lnnE47FXkiLxpbPZPqICRzVGsh0Nz2VcbFBGML8yuWknqJLuGi393sWcRh7uM1rqG6XW2jHqbUgjsrMq2Nhm8q1KKZz47u1UQwfhMpIA5vHpv0Dtom88t1qY/LdbsS2sOAFZxNzmqpN1i7T2TicU+SNQoSxLkXQA6BudxPYK1qRzIoy/VY9WHPeGFGe52wMqLlsI4tFvxeTg0kh6Wvc27qenaZ5N67RBqZBEzdtOaxt6GWLFyYRDZJY+UU/YmPFe86P6jR5og3zhVoXE5FDh248TrIoFplDm+pRhzZAP+a9REIcEUPRLh8SrgASAg6m1iRfXW3A68KoyMJyKsRyYcwrEqWFj6u2qTm4TmtSJ4c24UOMiJXhwJ9QpwbaIjXWdktHBJ4NPNX3CtyE/tt7D2WNOf3Xdz7oIxnlJPSP8RoDvUV00I/ab2CiqKIlSukEqZPe5SpJapWpJk1qe4ST0109k1qe6VkhSUVawOGWQsHF1ykEdDA6WPZUJJCwXCBUAFuE81obL5HDOylbcnGzJITciK5YoPNJOnE3NBfjmaCOqyt2Ij8FnxbXjDs6LI6va4CqqR2vaxHEm5JvrqKM+ke9oB191XZWxxvPQq4gWRxIhDKRx6iNLN0g9lCcDG0tdqtaOdj47tWvAtz3fnWfcpnaKLbO0Hw0RljtcEKyngyNxU+wG/WBV/Z485adCs6v9AcNQquG3nnwcSKJo8uJRpYjKbhAx0IJ1bU9VbLWYBYDJY0r8ZxFYUO0i8yyTKxkMitI2nJsb5AyEdHO4WpStJYUzD5ws5heREJtkxhU9kcjZjfsutRAs35IgNnjuiwbMEUjPh5s0RueSusa8pezEOL+D4kgdNUZDkA8Z9VaJu64yUeE20qSvHipYlRQCro3NzE+IufU26SKZ1IHsBF0SKoMbrK8+3MAQf8yLectC8H8EfxljdbWDmhMaFHupVSp01UgWPsrVjhLWAW5LOknu8n4oFxflJPSP8Rqk7Urr4eE3sFFUboit4DBiTNdiMoFrDiSCdeyyn21Xnl3drIE05itYaq3idjBHRTJ5R8oNhaxDFT/tF+80AVhcCQNEMVZc0m2irYPBpIXGZtHCqdLEG9i1+Hi/nRpJXNAIGoupvmcyxtqusZs8RtGuYku1idLAZsug4+vhUIqhz2l3RKOdzwSpzshc8ah28I9gebcKFzEkdJ46jSoiqNibaIfijYmwyCqYzBcmitckklWBAsDra3qFFimxusel0WGfeOIIVSrCspU6iQtDZBsWHcaq1GirTKfaWEEpRGQOGZQVJyhragE8ct/GtrYGjbPNn5rMr3Hc4QseDGZwUVA5uQ//APNBYlbKLcRYi2ltOur0gdixErFD8rLjY7okocXTOwje4OWRtcpA+q4tqbWINErY99T4uYRqKTdyjPIo1iW1+gWuSdAB1k9Vc4Gk2AW494AuUObxbUWTDzIinKgRszXDMcyjmx2uEsTq5BPQOmtelpRE8EnNZNVOZGkgZLrZSifC4XDrqEjzMzmyhmuW16IxewHE1ouNis7DdZmKjmhkbDBWMcmtshJDLrbNa+Rhw4DhTFzQLkpBribAKNt3pZZTHzgsyo7sRqgBIddNC3V3jqqp4xjYyemiteFeXgdVd3pxUcQWCEoqRDxRfPGo6L8CDxNuJpU43gxu5p5AWGxWdhd1sZJZ2ECKRnIdyCE8awCIQDl6OurONoNkAPPJTNufO45SB0MEl2hEhZJeT1IDjKQGt266cL0nSBqkyW+RRXsK3zaD0MfwCrLD5QhPHmKwMZ5ST0j/ABGsh/qK7aHhN7BQE1AmyItSPZ06FgrhdFDcdQzFB0dYJ7jVR08T7XCpuqIn2uLrmcToEDS+O4AFicrA3vmIsCC3AG9JhieS4C2SeMxuucOgTT7PmhDksoy6sBxNtLjTozfnSbNHJawTtmilIFk7YeZgpMqkqEddCSC55ouBwv08BSa6NpNgm3sYuAPh9FMMPiGuROrXYjML6c2xynLcGwtlGulQxxg2woe8iAzaq88bugZplZVUuAQwtdivC3EsDx4dl6JG9rXWw2OiKyRjDYNsTks+9WlbUmHjzMFJte+o46C9M52EXQ3OsLrS2WtlbTU6392lVJjicOirym5WhgYAzxSLIM0cboQedkaSwL5eJYC4sdDejwTCEkuGXVZNXG6TIFYW3djsjBlUHlCSQSbKb8OnnsLHqvperYqWSHVZr6d7MyEN7QfNDfM/g5Bck2dcwsLG5taxtr7K1YfRYqq8ovjxk7wRZSbzZYYWGjO9ryTDqIUaHoLCsYta1ziBotUOLg0OPfsrG0t1pUw0oYxRKyZBzieexBF9NSbHpvQ6fEZQ4qVZUxGLA0Kjj8BkwkLwcoOJdw/JyLYDmDpAvf2VrWsbkrGL8lX/AMdeEBpOWlfLcXYuQvRdyBYcPG6qqVMBncLGwV6kqWRsOLVZuJ3vxGSRUhCmytmU+Kr8Mo6TUW7NjBuTkjP2g52Vs1Ul3HxJYlnhZjqc5fNrrqQONSNfCzy20URQyyDHfVaZw+1lsBPGwA0556POSo+Kp35og2dKAs7GbRx6kCYuA1wGWTmFgLkc3UGwo7N24XahOgdE7ztR5sNx82g9DH8Aq2wHCFUkcMR7ofxnlJPSP8RrJf6iu2g4TewUBqBzRCAr52xKbjm87joessOPCxJtVfwrFVFIxQ4jHNJYsFuHZ7i/Fjci17Wv66kyBrbgdlOOnay9jyspMTtSSRWDZecAL21AHV32HsqLKZjbYUzKVjCCDouU2k4UIFQKtrWBBuDmvodTfo4dlOacE3ukaVty4ldrtdx9VAL3ygEC5FidDxIJ14603hm31KY0jDzKhjxrLwVNEZBcE2ViSbEn+YjXjpUzAOqkadpIz+Krnut2dVFAsjaK5skeE4X017r0Gc+VBm0WnHYZrW4n/tVN11XOdiqi7vLNy8qyNyqsB9m55MMFXpC6+Me31bbA3dNbbNc9UPdvnEFYe8b4zCS8iJdcoJBbNe44gt0WP5UWCnY/XVDfVyAW5LEwzE4Z18d2nCjmg2dl5pJOqgljw45e6rl8PyVImy9SaWJccc/iYDDLCgXUmeTnPlHXlCa1jlpczCOeaul+BmI6lQba2g89izBFXVYrKRfrJPjN7BrR4mBosNVnvkL80OTFHIKkpFbouquOtkBsV7eJqwMlEFUtr7TUqUw50e4KqObk4MWAGpPRUgLHNTYwk35LnB46CB0YxNKFQKHKyJYj+WQDlB036KA+KQi17K+Xsc4Fo0RDPtlJFEgI42PPRSeqwY3NUTS8ir1PV4BZQ/4vCNS4v9m6k+vUD86iKNwNladXMDbrN2vNHPGqIyowkz88NltlI0eMMqtc/WIHbVyngMTiSclUqqxsoAARbsSC2HhBYXEUYPE65R021rSboFjvddxQzjPKSekf4jWQ7UruoOE3sFFUUVKkkmpiklSSSpJJUkkqdJKkmV7ZPjnzaDUehCm0C041PKCwH/eqgsqjvSrWD2grNK0Lp4RkiJchQgQZXeIEXlc2PGwFh69tpDQFzUlyTcqn8p+SdFDryciSXhYqRmiIsVd1JyG+tnA6NKMx+E3QnDJBuwdmSPKkhXIsbBsxtznU3AUDxhoOcdKLLI3BYKuHYTci6JcZtJELm4zMS7twAJ4kk+r2aVXbHyCg55dmUJ7Q28ZJPFLIt+OgY9F+pOziastYGjNSDCcl3Bh58U4Vm8YgAcEA7ukAdfVQHzNborccFu6O8FuPgrKFxTF+k2Vbn+VWF6rGXFoUcNc0ZtXeJ3QeIgXjKHTOQQVJ4ZwBoD9oad1DOI807ZG9F3Huk46YvWjE/mKhc9Sp3aum3cIIzRq44XRAtvOBHDtF6icXxUwW/BXINjtH4oYDqspHsKkVEFw0BT2aeYWuiiw8EBpw10/KtRhOEZclReBiOa82xnlJPSP8Rqk7Urs4OE3sFFUUVKkkmpJJUkkqRSCVMpJUkkqdMVe2R4582q9QbNVebktePxhbj0VRbmqz0Gb2xn5wSCFJTXmg5iGYC+ndW9ReaPNYW0Gje5dFmbKiMuIijMkpzNdkLnIQNejuq46wCzn5BFW3cYIhq2VdASON+hVHSbdFDjZiVUm6GVSbFOERCwGojHAfzSHhftOnVRnSRsGasRwHVFWyN1I4gZpysjLchAPBgi+pv4/DurNlqy/ytV+OnAzcq+7RzysxvfKSL6cTrb9KFNk3VEgzciO6m4uCRxFxcd4qrmrhFlXfbuIgCxRKZ2lkEaRE6nMCQFY3yLlUsT1WrVpYsbLuWZUvs/IImllniTI0weZVBaOME5ARpcnja3TYtxom7ANlWxHVA+K+ULHwytGY4pCuoIZ1Dr1gNfKeIII0IqW6YptJcMlpQfKvhyvOjdW6VKEkHp50Zs2vd3UxgtomBRLhNupKiSBTZ1DjQjRhmHE9tWAw2QyUAYvyknpH+I1lO1K7qHhN7BQmooiQpJwo8ROEFyGNyBzRfU6D86m1uI2Q5pRE3EVXfakQB1PNvcDiLMEN+rUipbl5VV20IeV1LPjEQoGNjJbLpfjbj7agIy69uSM6qYzDi1dopIZQ17X0Yqb9Y4+qmc3CjRytkvh5ZKSooianUSrux28IeorVaq4aDLoFsRmzA9RqiwKs4XCFd608KjdDKy+xr/8AVW7s8+QtWPtJvnafgsTYJIxam/ioSD0C4t6tTWi70lYsvRa228RySsfrcRcX5x/Iesa61CPRDa25Rnu7s4YbCIgFnK55D1u2tu4cLVi1MmOQ9FtRx2AVXeLaMcWCkObUsIQPrFzznyjpIX30Sngc5+ihPKAsnYi5ooniNw5JU9OZTYhuo9Fu2pTjC7C5SgzaCFeOECvy3KMSytlQ2Cpfjw1J6Ne2gY/LhAVp5LrErlMVImOw/Jsqu2GnMJYc0StZUv25Y2A76147CIALHmBLiUXbHnmlGhwsjsisc0bBhNpm5Vum2ug7KQdbJBQl8rWHjkxmDhjAEjI4fLYECSRArG3c7C/QDRrXCmw2uUFHH5i7R2SK5Earayxqcq9pJABJPEk1B5zsFYia3Dcr0fYchOGgOYm8MZv18wUUaIL7Yih3F+Uk9I/xGsl2pXbQ8JvYKE1FTKry41FcRm+YqW7LAE+3mmiiIubcKtLWxxvwOve11F8+RwoyMQ68oo0Him41vq2l7Dqp9y4Z3Q3VcbwAQeqheaAjnRsAYzJ1XRmzm2upJsdOHZUw2QHVBdNTHVlsrqcyxNlcoSUKBb6lTJbL069F6jheCbc0YSwOs62lrfNcvtCKMkG4uzk9RZTZtegk8KbdPfYpxWwR3GepU0WNVmyi+t7HSxK+MBrfSouic1t0VlZG9+Bt+6sUNWSrWzGs/qNAqBdlkGXRa41uOuqTRZVih/exOZH2ORfvU391a2z/AFFZ202/th3xWRu5GTI8otlCiK545jzjYdNha/nCtN5sLLnpCtfEbOE8iA6ryqK2uoFxcfzDTh0UEvwsKlALvAR1ijdWHYTWGTc3W1bNeffKZMDPHH9WKHNbreU6k9tkXWtqh9Cz6oZqL5P8QQzRMeZIBNH2MpyPbvVlPqqO0GXaHpUT7Pwos2uoB7ySOjQ8R3A1ls1Wk52Swd5sVg8QIkM0ZMTERukmSRVbnsr/AFSA40PdWrFK/CBhKzJY8yQU2C3obDqUTEgaWzFI5GHdZrE9tqncHOyCWW5rAmMbzDEttJ+XzB+UeMlsy+Lw0sBpa1qKHm1gFHCrL4uE3PL7PN+vCuv5KQKYn4JwbZL0PY5T5vDZoiOSSxVWCkZRbKDqB1CjfJDKFsX5STz3+I1kO9RXeQ8JvYKGoollFJhkZgxUFgLXPV/4T7amHuAsChSQRvOJwzVZ2hjdEy84IxXjZQL6aniQGt66I3ePbe6qyOgjeGEZ2XBeElRyTG4EY6gGTOBYn7PT2U4bIOaG6SncfTfkuFmw7+LGzlgihQTdjqVW97XGXjUgyTqm3tKRk35LqOeB2EfJ3zg8Rw1OYHX7SanuqJZI0XupNlpnvEeHVXVwyBs4UZuvXu7r2HGgl7iLEq62CNrsQGalqKMpMO1m9tQeLhDeLhauDmzMR2VUeyzVWc1Ud5cLysLBdWBBXrDXHD1Vao3YXhU6+PFTn4ZqPDwLHkhXUIOceks2rE9t61XG65N5vmp92HDy5RrZnlY9VrAfnQKrys7qzRtxShFs3it2g1kkZLaIXnW+kebHvcXGSLm9fNGnrOnrraoz+2smrPmV/auCOF2hCpyA5o8/JqUjDTqUdUUk2UNY8anIMbCEKI4Xgoy27Oj4GaRUQZE1aykqwYK41BsePGkwNw5BRc9xdYlBSQRICcoYMAozhWAvrmUhbhsoNAfMQM0eCESvwqPkF6UHG2thw9VB8X0C1Bskf2XfIRgi6jUgC3GxIB6OIvTx1Tnm2FAqNnNiYXYlImBU3tCWtfXo9oAq0Hnksrmi7ZsVoYxktaNBbq5o0qwCbJEISxnlJPSP8RrKdqV3UJ/ab2ChqKKlTpKNsOhOYqC2hueOlwPefbTte5osChmCNxxOGaaLDIoAVAADmHnWtf2aUjI46lM2CNugTNhIyMpQWsB6hqO616cSO6pGniIsWp1wyAghACosCOgC9vefbSMjiLFOIIgQQ3MKW9QRUqSZNTqJWlscalr9luy1ye6q0wyAQZcrLstlQkgls5PYNOk9AAuat08Vzi5LC2tVYQIm89ViR40HMw7PzOnH291aIbZc+4ZCyJNwcARh2msbzObeYtwO65JNZ9Y/E6w0C1qSPA2/NEEsZ4WOt+iqBDrq9cIH3pw5+dK33mHjI7GjcI/s5vtrWoyN2sqrFnWWh8qOLE0eGxEX3Tsp4XZGRlPtorDnmq6uzQJiF5VS4ixcayFVNg+YDOrLwJVr9tUHyyRPLWrQjijlbiOqoz7NvaCF+SCi7Z0WQFfqWB1HTqaTakgYni905phisw2UZ3dkP/yFP/0J+tN4xvJil4d5/wAyu12BICCMSqkdPzeO46NPUabxrR/gmNI46uKzNu7vY+XKiYkSxfWU2hIPaF0daPFWRAeYWKC6jeDkizYuz5I8PCjDnJFGpsdLqoBt7K0GzMIBuqzo3AkIZxnlJPSP8RrLdqV2sPCb2ChqKMlSSSpJJUk6VJJNekklSTJ6SSY0kldwKJkLObeNrfosLX7Lk61A+Z1rqnVzGFpdqs/aeIVsyASOT9XRMyXuMpIIe2uq65bVqsjwgBcU6R0jzI5VtqIEjJuDwAsRobWFxxNSaTe6gHFxAVXZu8OKgUcm4AsFZWBK5VJKnjo1jYnpFqC+JhK0mF1rojg3wxwsXwjOtwGMYkLAdYBve3VVcxRHR2aO7et1au9vbQgxKBIs3KokhUmORDlOUkHOoHFRpUqRjmE3VaqIPJR73m+AwehW8M3NPEHmVZYM1VGiyt2t7XwmHeBozIjXKEZc0Lnx7X0Ktx77008QforLSWWK4wO3hZ2Qz3Y3YsUu1hp0cB0Cq76XRHjkLgXXXSbyu3AzD1p+lR8GBqnbM5V/4skvbNJx61v7qIaFqCap17KU7zS2PPkHTqU/bUfBMRN85HmyMY7QQsSbtEhPeVBq6yFoaAqj3kuKF8Z5ST0j/EazHeortYeE3sFDUUVKkklSSSpJ0qSS5FJMuqSSVJJNnUEFjYXF+vj1UiCdEF8rG38wut3EbRhiTOChLGyqCDzT126T1eqqe5e99lmvnba5KHo4pJZgRAcOEUyrGRo4va5HEMSTYacK0BIIWXLsSzHQ79xGGyzdqRAtkK5XGrMwIOuuUA8T7qtRzFwBVc07Ija6qQFJABcAFhcnha+tSdlmrEWFxAC9Cw+04VXWeMcLXdR/esF8T3HQrYke2+RUG8G0oWi0mjYhuCurNqpXQA36auUDHtkzBWZWlpjyWLvjj5HhhSQAcnD4Nwb8pFMQUPYRa3bWrHrcLGHIIZRNCKZxV0DKyJNlbHweVeUZbm1wZbdGul9Kz5pZr+ULUZTQBgzz7qzj8FhEtyXJnjez5u7poUck59SswQ0/Oyjiw+DFiVh6bm/T7akXTFMYqUZiyhxHzVhlOS1ujT8xTt3yk7wxFnWRrslIhBEFPN5NLanhlFvyrUYX4RdYErIg826lCmM8pJ6R/iNZrtSuvg4TewUFRRUiaSZKkklekkkTSSSvSST3pJJUklBJhVJzaq3SVPHvHA0QSFqpz0EUpudVoDY4hKYgCTEMt8qAIArEeMRxJGtDFRvLx5D4rKNNunYsz8FEu2sQGZxh2LsAozRyAC18up0IuSeNJ1PGQAXZKIllLrNbqocLgiVbO3KSu6F3PVe7ZepQOik+WxAGQCumjwMzF3HVazYFAwIRengAONA3jiMyjYGN0ar2Aw0VyFQHTgwXTu06aFI59tVF9jyXW09liWJ40VUdlsrgAFWGqm9usCmgncx4JKrTRNfGWrzbaOJzcxhlluDKmoyOtgRY8Nbnq6q6MZ5t0XPsZhNnckoNSdRqePQO+huyVyPMJPAL+NH7T+lMCnMfO6aJgp6DSIuk24TWF+jWkNExzUkiWqKlZelbC+jQehj+AVZZ6QqT/UUO4vyknpH+I1ku1K7aDhN7BRWqKKlSSStSSTGkmStSST2pJJUkkqSSVIplYjx0g4OeHA8B2ioYAh7pp1C7l2lIwsSCOq3rpCMApCFrcwq4kNrdt6ctup4bqzhsSc63NQczJDfGLLTSbKWawPNFu3W1DLbiyrYbiy1IdQDw0vVZ1hkg6GyrbQ2YkxBZUuOkoCzdWtEZUOYLAqBiYTmFny7FwwPkU424Wqxv5CMykIG8gmw2y4LnwUfH7NRfO+2qcwtViXZGHI8lH+H9KCyolvqn3LOionZUAOsSe6jeIk5FEFOw8kjsiDXwYOml+FR8RJzKcQx30RHs7DZYoxYCyKNOxRWxFLdjc+QWLPGzeuy5n3QdjPKSekf4jVN/qK6WHhN7BRVFGTXpJJCknT0kyVJOlSTpr0kk9JMUqSZKnTXSpk909JOE440kxC0IWOQ9VwP/AMoTtVWIsUQx+T/5aoO9SqO1XYJ0t1f2pc0xWfN1X6b0cKYTwdNRckUzYhcxWxuBemDOamGnVUsUbjsozRZEaoIJgosSak9pdopFlyinAyAxof5F9wrShb+23sFz84/dd3Pusqfd2Muxzyasx4r0m/2e2pmnaTe5V2PaUoYBYff8qP8AhyL7cntX9tN4dvUqX6nL0H3/ACn/AIci+3J7V/bS8O3qUv1OXoPv+Uv4cj+3J7V/bS8O3qUv1OXoPv8AlIbuR/bk9q/tpeHb1KX6nL0H3/KX8OR/bk9q/tpeHb1KX6nL0H3/ACl/Dkf25Pav7aXh29Sn/U5eg+/5S/h2P7cntX9tLw7epS/U5eg+/wCUv4ci+3J7V/bS8O3qU36nL0H3/KX8OR/bk9q/tpeHb1KX6nL0H3/KX8OR/bk9q/tpeHb1Kb9Sl6D7/lP/AA5F9uT2r+2l4dvUpfqcvQff8pv4cj+3J7V/bS8O3qU/6nL0H3/Kdd3Y/tye1f20xp29Sn/U5eg+/wCVOuxUCkBn7+bf4aj4VhOp/wC+SE7aEl9B9/ytVcGuW124dn6VWNDHi1P2/CrmsffQff8AKTYFbDVtNOj9KbwMfU/b8JeMf0H3/KrNsxb+M/tH6UUUbOp/75KXjX9B9/yu49nKOlvy/SmNEw8z9vwl41/Qff8AKrrshC7Nme57R+lP4NgFrn7fhEFfJa1h9/yml2Qh0zP/ALf0qXhGHmf++SkK+ToPv+VXbYEZ+s/tX9tT8M0cz9vwpDaUg5D7/lbOFwaqiqCbBQNbX0FuqrbIwGgLKlqHOe45alf/2Q==</t>
+  </si>
+  <si>
+    <t>In not to sure about Later. The storyline was okay. There was a lot of weirdness going on in the book.</t>
+  </si>
+  <si>
+    <t>The Notebook</t>
+  </si>
+  <si>
+    <t>https://nicholassparks.com/wp-content/uploads/1996/07/201612-notebook.jpg</t>
+  </si>
+  <si>
+    <t>Nicholas Sparks</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>I flew through the first 2/3's of this book and stalled when I reached the part where Noah is back in the nursing home. The reason, it was an emotional struggle to watch a man go through what Noah endured. In the end, I loved this book. Grabs you in the heartstrings!</t>
   </si>
 </sst>
 </file>
@@ -374,7 +440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -420,14 +486,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CC1E3F8-879B-4267-95FC-063D122BD653}" name="Title"/>
     <tableColumn id="2" xr3:uid="{C06C9B10-C9C9-4B8A-BC9F-896982124D93}" name="Author"/>
@@ -720,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B34:B35"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1037,7 +1103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1054,7 +1120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1071,7 +1137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1088,7 +1154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1105,7 +1171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1122,7 +1188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1139,7 +1205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1156,7 +1222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1173,7 +1239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -1190,7 +1256,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -1207,7 +1273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -1224,7 +1290,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1241,7 +1307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1256,6 +1322,106 @@
       </c>
       <c r="E30" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6">
+        <v>14.99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="6">
+        <v>21.78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="6">
+        <v>11.49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="6">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Data Resources/Book Data.xlsx
+++ b/Data Resources/Book Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\GitHub\4413-2021\Data Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16DC8D1-D1A6-47DB-B912-431A4E833826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B5819-023D-4212-9CD1-61096D3392FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>Title</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>I flew through the first 2/3's of this book and stalled when I reached the part where Noah is back in the nursing home. The reason, it was an emotional struggle to watch a man go through what Noah endured. In the end, I loved this book. Grabs you in the heartstrings!</t>
+  </si>
+  <si>
+    <t>Isbn</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -487,6 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,15 +513,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699830CD-C2B0-4B0D-85F2-8A747297B024}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35" xr:uid="{022C4BD1-2514-4AC0-B48A-1057958B7AFB}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CC1E3F8-879B-4267-95FC-063D122BD653}" name="Title"/>
     <tableColumn id="2" xr3:uid="{C06C9B10-C9C9-4B8A-BC9F-896982124D93}" name="Author"/>
     <tableColumn id="3" xr3:uid="{E18B4205-B288-42B9-AF0B-12C731EB52D6}" name="Genre"/>
     <tableColumn id="4" xr3:uid="{AB0F5EA9-7DE6-4DC5-B5A1-ECC0AC905A6B}" name="price" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D1900ECD-8BE6-42EC-A5EA-CDDA940E8E6A}" name="Picture Link"/>
     <tableColumn id="6" xr3:uid="{3A9CDCCD-773A-4185-B2A6-DA79F66AB8A0}" name="Reviews"/>
+    <tableColumn id="7" xr3:uid="{0EC19BF8-233C-4A54-AEE4-31069EC548D2}" name="Isbn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,9 +805,10 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="88.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="230" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,8 +827,11 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <v>9781524763169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -855,8 +867,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>9780221076992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -872,8 +887,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7">
+        <v>9780470149287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -892,8 +910,11 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7">
+        <v>9780006479888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -912,8 +933,11 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7">
+        <v>9780048232731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -929,8 +953,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7">
+        <v>9780345331359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -946,8 +973,11 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="7">
+        <v>9781783293698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -963,8 +993,11 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="7">
+        <v>9780765317384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -980,8 +1013,11 @@
       <c r="E10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="7">
+        <v>9780716769118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1000,8 +1036,11 @@
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>9780789331144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1017,8 +1056,11 @@
       <c r="E12" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="7">
+        <v>9780307743688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1034,8 +1076,11 @@
       <c r="E13" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="7">
+        <v>9780439554930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1051,8 +1096,11 @@
       <c r="E14" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="7">
+        <v>9781760508111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1068,8 +1116,11 @@
       <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="7">
+        <v>9781786892706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1085,8 +1136,11 @@
       <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="7">
+        <v>9781338747690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1102,8 +1156,11 @@
       <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7">
+        <v>9781260440218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1119,8 +1176,11 @@
       <c r="E18" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="7">
+        <v>9780785123491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1136,8 +1196,11 @@
       <c r="E19" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="7">
+        <v>9781432885793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1153,8 +1216,11 @@
       <c r="E20" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="7">
+        <v>9780241448304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1170,8 +1236,11 @@
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="7">
+        <v>9783785727003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1187,8 +1256,11 @@
       <c r="E22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="7">
+        <v>9780140180909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1204,8 +1276,11 @@
       <c r="E23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="7">
+        <v>9780141393391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1221,8 +1296,11 @@
       <c r="E24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="7">
+        <v>9780063059412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1238,8 +1316,11 @@
       <c r="E25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="7">
+        <v>9781443462877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -1255,8 +1336,11 @@
       <c r="E26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="7">
+        <v>9780241434567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -1272,8 +1356,11 @@
       <c r="E27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="7">
+        <v>9781681196282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -1289,8 +1376,11 @@
       <c r="E28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="7">
+        <v>9781250759665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1306,8 +1396,11 @@
       <c r="E29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="7">
+        <v>9780525656760</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1323,8 +1416,11 @@
       <c r="E30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="7">
+        <v>9780545935180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -1343,8 +1439,11 @@
       <c r="F31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="7">
+        <v>9780194230636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -1363,8 +1462,11 @@
       <c r="F32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="7">
+        <v>9780765311788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -1383,8 +1485,11 @@
       <c r="F33" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="7">
+        <v>9780143193982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -1403,8 +1508,11 @@
       <c r="F34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="7">
+        <v>9781789096491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1422,6 +1530,9 @@
       </c>
       <c r="F35" t="s">
         <v>135</v>
+      </c>
+      <c r="G35" s="7">
+        <v>9780446930642</v>
       </c>
     </row>
   </sheetData>
